--- a/我的excel.xlsx
+++ b/我的excel.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E12582E-C06A-4995-8A32-82991EB6B353}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC82147-78F0-4EEC-9A6F-4AACB89E39A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1005" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2010" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -332,15 +332,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>11</v>
+      </c>
+      <c r="B1">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
